--- a/learning_input.xlsx
+++ b/learning_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairemoore-cantwell/GitHub/GSR_Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB19C329-8C16-6C49-A12E-FA42C8EBBE05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E512ADDE-B869-3547-8C54-33A62FC67976}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3456,9 +3456,6 @@
     <t>vai</t>
   </si>
   <si>
-    <t>agaia</t>
-  </si>
-  <si>
     <t>maqamulumuluia</t>
   </si>
   <si>
@@ -3570,15 +3567,9 @@
     <t>toqilalo</t>
   </si>
   <si>
-    <t>qalof</t>
-  </si>
-  <si>
     <t>faqato:</t>
   </si>
   <si>
-    <t>ta:umaf</t>
-  </si>
-  <si>
     <t>felava</t>
   </si>
   <si>
@@ -3769,6 +3760,15 @@
   </si>
   <si>
     <t xml:space="preserve"> agaqi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> agaia</t>
+  </si>
+  <si>
+    <t>lagiaa</t>
+  </si>
+  <si>
+    <t>qalofaga</t>
   </si>
 </sst>
 </file>
@@ -4205,8 +4205,8 @@
   <dimension ref="A1:P624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G605" sqref="G605"/>
+      <pane ySplit="1" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4232,16 +4232,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>1148</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>1149</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>5</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>306</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>337</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>348</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>384</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>403</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>459</v>
@@ -4770,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H15" s="26" t="s">
         <v>468</v>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>543</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H18" s="26" t="s">
         <v>576</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H20" s="26" t="s">
         <v>613</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H21" s="26" t="s">
         <v>613</v>
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H22" s="26" t="s">
         <v>613</v>
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H23" s="26" t="s">
         <v>622</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H24" s="26" t="s">
         <v>622</v>
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>1181</v>
+        <v>791</v>
       </c>
       <c r="H50" s="37" t="s">
         <v>791</v>
@@ -6214,17 +6214,17 @@
         <v>0</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="I53" s="8">
         <v>744</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>133</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>193</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="H62" s="25" t="s">
         <v>810</v>
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="H63" s="25" t="s">
         <v>819</v>
@@ -6632,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="H64" s="16" t="s">
         <v>292</v>
@@ -6746,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="H67" s="16" t="s">
         <v>316</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="H69" s="16" t="s">
         <v>323</v>
@@ -7164,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="26" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="H78" s="16" t="s">
         <v>464</v>
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="H79" s="16" t="s">
         <v>260</v>
@@ -7354,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="H83" s="25" t="s">
         <v>851</v>
@@ -8137,7 +8137,7 @@
         <v>258</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>48</v>
@@ -8570,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="26" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="H115" s="14" t="s">
         <v>130</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="G125" s="26" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="H125" s="14" t="s">
         <v>182</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="H136" s="7" t="s">
         <v>242</v>
@@ -9710,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="G145" s="26" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="H145" s="25" t="s">
         <v>804</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="G146" s="26" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="H146" s="25" t="s">
         <v>816</v>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="26" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="H148" s="16" t="s">
         <v>337</v>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="G150" s="26" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H150" s="16" t="s">
         <v>353</v>
@@ -10014,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="G153" s="26" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="H153" s="16" t="s">
         <v>257</v>
@@ -10052,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="26" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="H154" s="21" t="s">
         <v>471</v>
@@ -10090,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="26" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="H155" s="16" t="s">
         <v>484</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="26" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="H157" s="16" t="s">
         <v>562</v>
@@ -10204,7 +10204,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="26" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="H158" s="16" t="s">
         <v>281</v>
@@ -10242,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="G159" s="26" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="H159" s="16" t="s">
         <v>572</v>
@@ -10280,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="G160" s="26" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="H160" s="16" t="s">
         <v>593</v>
@@ -10318,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="26" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="H161" s="16" t="s">
         <v>599</v>
@@ -10356,7 +10356,7 @@
         <v>0</v>
       </c>
       <c r="G162" s="26" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="H162" s="16" t="s">
         <v>636</v>
@@ -11306,7 +11306,7 @@
         <v>1</v>
       </c>
       <c r="G187" s="26" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H187" s="35" t="s">
         <v>409</v>
@@ -11496,7 +11496,7 @@
         <v>1</v>
       </c>
       <c r="G192" s="26" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H192" s="35" t="s">
         <v>567</v>
@@ -11648,7 +11648,7 @@
         <v>1</v>
       </c>
       <c r="G196" s="26" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H196" s="16" t="s">
         <v>613</v>
@@ -11686,7 +11686,7 @@
         <v>1</v>
       </c>
       <c r="G197" s="26" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H197" s="16" t="s">
         <v>622</v>
@@ -12826,7 +12826,7 @@
         <v>1</v>
       </c>
       <c r="G227" s="26" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="H227" s="25" t="s">
         <v>797</v>
@@ -12864,7 +12864,7 @@
         <v>1</v>
       </c>
       <c r="G228" s="26" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="H228" s="25" t="s">
         <v>828</v>
@@ -13018,7 +13018,7 @@
         <v>1</v>
       </c>
       <c r="G232" s="26" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="H232" s="16" t="s">
         <v>451</v>
@@ -13094,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="G234" s="26" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="H234" s="16" t="s">
         <v>262</v>
@@ -13246,7 +13246,7 @@
         <v>1</v>
       </c>
       <c r="G238" s="26" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="H238" s="16" t="s">
         <v>528</v>
@@ -13284,7 +13284,7 @@
         <v>1</v>
       </c>
       <c r="G239" s="26" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="H239" s="16" t="s">
         <v>588</v>
@@ -13322,7 +13322,7 @@
         <v>1</v>
       </c>
       <c r="G240" s="26" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="H240" s="16" t="s">
         <v>588</v>
@@ -13398,7 +13398,7 @@
         <v>1</v>
       </c>
       <c r="G242" s="26" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="H242" s="16" t="s">
         <v>607</v>
@@ -14348,7 +14348,7 @@
         <v>1</v>
       </c>
       <c r="G267" s="26" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="H267" s="14" t="s">
         <v>156</v>
@@ -14538,7 +14538,7 @@
         <v>1</v>
       </c>
       <c r="G272" s="26" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="H272" s="25" t="s">
         <v>810</v>
@@ -14842,7 +14842,7 @@
         <v>1</v>
       </c>
       <c r="G280" s="26" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="H280" s="16" t="s">
         <v>629</v>
@@ -15602,7 +15602,7 @@
         <v>1</v>
       </c>
       <c r="G300" s="26" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="H300" s="25" t="s">
         <v>22</v>
@@ -15640,7 +15640,7 @@
         <v>1</v>
       </c>
       <c r="G301" s="26" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="H301" s="25" t="s">
         <v>810</v>
@@ -15718,7 +15718,7 @@
         <v>2</v>
       </c>
       <c r="G303" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H303" s="35" t="s">
         <v>323</v>
@@ -16138,7 +16138,7 @@
         <v>2</v>
       </c>
       <c r="G314" s="26" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="H314" s="16" t="s">
         <v>478</v>
@@ -16556,7 +16556,7 @@
         <v>2</v>
       </c>
       <c r="G325" s="26" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="H325" s="7" t="s">
         <v>239</v>
@@ -17187,7 +17187,7 @@
         <v>667</v>
       </c>
       <c r="B342" s="16" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C342" s="16" t="s">
         <v>21</v>
@@ -17202,7 +17202,7 @@
         <v>3</v>
       </c>
       <c r="G342" s="26" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="H342" s="16" t="s">
         <v>19</v>
@@ -17240,7 +17240,7 @@
         <v>3</v>
       </c>
       <c r="G343" s="26" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="H343" s="16" t="s">
         <v>419</v>
@@ -17278,7 +17278,7 @@
         <v>3</v>
       </c>
       <c r="G344" s="26" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="H344" s="16" t="s">
         <v>524</v>
@@ -17582,7 +17582,7 @@
         <v>3</v>
       </c>
       <c r="G352" s="26" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="H352" s="16" t="s">
         <v>554</v>
@@ -17772,7 +17772,7 @@
         <v>3</v>
       </c>
       <c r="G357" s="26" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="H357" s="16" t="s">
         <v>289</v>
@@ -18266,7 +18266,7 @@
         <v>4</v>
       </c>
       <c r="G370" s="26" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H370" s="16" t="s">
         <v>622</v>
@@ -18532,7 +18532,7 @@
         <v>4</v>
       </c>
       <c r="G377" s="26" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="H377" s="16" t="s">
         <v>388</v>
@@ -18646,7 +18646,7 @@
         <v>5</v>
       </c>
       <c r="G380" s="26" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H380" s="35" t="s">
         <v>353</v>
@@ -18836,7 +18836,7 @@
         <v>5</v>
       </c>
       <c r="G385" s="26" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="H385" s="25" t="s">
         <v>828</v>
@@ -18874,7 +18874,7 @@
         <v>5</v>
       </c>
       <c r="G386" s="26" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="H386" s="16" t="s">
         <v>554</v>
@@ -19049,7 +19049,7 @@
         <v>912</v>
       </c>
       <c r="B391" s="25" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C391" s="16" t="s">
         <v>21</v>
@@ -19122,10 +19122,10 @@
     </row>
     <row r="393" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="35" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B393" s="35" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C393" s="40" t="s">
         <v>21</v>
@@ -19140,7 +19140,7 @@
         <v>6</v>
       </c>
       <c r="G393" s="26" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H393" s="36" t="s">
         <v>366</v>
@@ -19406,7 +19406,7 @@
         <v>7</v>
       </c>
       <c r="G400" s="26" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H400" s="35" t="s">
         <v>400</v>
@@ -19467,7 +19467,7 @@
         <v>68</v>
       </c>
       <c r="B402" s="27" t="s">
-        <v>68</v>
+        <v>1245</v>
       </c>
       <c r="C402" s="27" t="s">
         <v>25</v>
@@ -19482,7 +19482,7 @@
         <v>7</v>
       </c>
       <c r="G402" s="26" t="s">
-        <v>1179</v>
+        <v>67</v>
       </c>
       <c r="H402" s="27" t="s">
         <v>67</v>
@@ -19788,7 +19788,7 @@
         <v>7</v>
       </c>
       <c r="G410" s="26" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="H410" s="16" t="s">
         <v>267</v>
@@ -19826,7 +19826,7 @@
         <v>8</v>
       </c>
       <c r="G411" s="26" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H411" s="35" t="s">
         <v>430</v>
@@ -19978,7 +19978,7 @@
         <v>8</v>
       </c>
       <c r="G415" s="26" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="H415" s="25" t="s">
         <v>802</v>
@@ -20054,7 +20054,7 @@
         <v>9</v>
       </c>
       <c r="G417" s="26" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="H417" s="16" t="s">
         <v>538</v>
@@ -20396,7 +20396,7 @@
         <v>11</v>
       </c>
       <c r="G426" s="26" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="H426" s="7" t="s">
         <v>260</v>
@@ -20434,7 +20434,7 @@
         <v>11</v>
       </c>
       <c r="G427" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H427" s="16" t="s">
         <v>289</v>
@@ -20457,7 +20457,7 @@
         <v>620</v>
       </c>
       <c r="B428" s="16" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C428" s="7" t="s">
         <v>25</v>
@@ -20837,7 +20837,7 @@
         <v>766</v>
       </c>
       <c r="B438" s="16" t="s">
-        <v>766</v>
+        <v>1244</v>
       </c>
       <c r="C438" s="16" t="s">
         <v>21</v>
@@ -20852,7 +20852,7 @@
         <v>13</v>
       </c>
       <c r="G438" s="26" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H438" s="16" t="s">
         <v>767</v>
@@ -20928,7 +20928,7 @@
         <v>13</v>
       </c>
       <c r="G440" s="26" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="H440" s="16" t="s">
         <v>212</v>
@@ -21384,7 +21384,7 @@
         <v>14</v>
       </c>
       <c r="G452" s="26" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="H452" s="25" t="s">
         <v>802</v>
@@ -21536,7 +21536,7 @@
         <v>16</v>
       </c>
       <c r="G456" s="26" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="H456" s="25" t="s">
         <v>968</v>
@@ -21878,7 +21878,7 @@
         <v>18</v>
       </c>
       <c r="G465" s="26" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H465" s="25" t="s">
         <v>985</v>
@@ -22296,7 +22296,7 @@
         <v>20</v>
       </c>
       <c r="G476" s="26" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="H476" s="25" t="s">
         <v>974</v>
@@ -22942,7 +22942,7 @@
         <v>28</v>
       </c>
       <c r="G493" s="26" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H493" s="25" t="s">
         <v>846</v>
@@ -23094,7 +23094,7 @@
         <v>30</v>
       </c>
       <c r="G497" s="26" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="H497" s="25" t="s">
         <v>996</v>
@@ -23778,7 +23778,7 @@
         <v>41</v>
       </c>
       <c r="G515" s="26" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="H515" s="16" t="s">
         <v>316</v>
@@ -24690,7 +24690,7 @@
         <v>61</v>
       </c>
       <c r="G539" s="26" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="H539" s="25" t="s">
         <v>822</v>
@@ -24880,7 +24880,7 @@
         <v>68</v>
       </c>
       <c r="G544" s="26" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="H544" s="16" t="s">
         <v>534</v>
@@ -25146,7 +25146,7 @@
         <v>73</v>
       </c>
       <c r="G551" s="26" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H551" s="35" t="s">
         <v>229</v>
@@ -25298,7 +25298,7 @@
         <v>73</v>
       </c>
       <c r="G555" s="26" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="H555" s="25" t="s">
         <v>867</v>
@@ -25336,7 +25336,7 @@
         <v>76</v>
       </c>
       <c r="G556" s="26" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H556" s="35" t="s">
         <v>580</v>
@@ -25587,7 +25587,7 @@
         <v>806</v>
       </c>
       <c r="B563" s="25" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C563" s="25" t="s">
         <v>53</v>
@@ -25602,7 +25602,7 @@
         <v>92</v>
       </c>
       <c r="G563" s="26" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="H563" s="25" t="s">
         <v>807</v>
@@ -27180,10 +27180,10 @@
     </row>
     <row r="605" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="27" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B605" s="27" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C605" s="27" t="s">
         <v>53</v>
@@ -27198,7 +27198,7 @@
         <v>522</v>
       </c>
       <c r="G605" s="26" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="H605" s="27" t="s">
         <v>19</v>
@@ -27388,7 +27388,7 @@
         <v>975</v>
       </c>
       <c r="G610" s="26" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="H610" s="16" t="s">
         <v>634</v>
@@ -27601,7 +27601,7 @@
         <v>1089</v>
       </c>
       <c r="B616" s="25" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C616" s="16" t="s">
         <v>21</v>
@@ -27676,10 +27676,10 @@
     </row>
     <row r="618" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="3" t="s">
-        <v>1141</v>
+        <v>1243</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>1141</v>
+        <v>1243</v>
       </c>
       <c r="C618" s="3" t="s">
         <v>21</v>
@@ -27694,7 +27694,7 @@
         <v>0</v>
       </c>
       <c r="G618" s="26" t="s">
-        <v>19</v>
+        <v>1241</v>
       </c>
       <c r="H618" s="3" t="s">
         <v>19</v>
@@ -27708,10 +27708,10 @@
     </row>
     <row r="619" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C619" s="3" t="s">
         <v>21</v>
@@ -27726,10 +27726,10 @@
         <v>0</v>
       </c>
       <c r="G619" s="26" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H619" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I619" s="3">
         <v>118</v>
